--- a/biology/Botanique/Androsace_pubescente/Androsace_pubescente.xlsx
+++ b/biology/Botanique/Androsace_pubescente/Androsace_pubescente.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Androsace pubescens
 L'Androsace pubescente (Androsace pubescens) est une espèce de plante à fleurs du genre Androsace et de la famille des Primulaceae.
@@ -516,7 +528,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée et un orophyte haut de 2 à 6 cm formant des coussinets lâches, assez plats, aux feuilles grisâtres, velues.
 Les petites fleurs solitaires, blanches à gorge jaune sont portées par un court pédicelle (ce qui distingue l'espèce de l'Androsace de Suisse).
@@ -549,7 +563,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpes occidentales, Pyrénées occidentales.
 </t>
@@ -580,7 +596,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rochers, éboulis calcaires ou schisteux de 2 000 à 3 000 m d'altitude. 
 </t>
@@ -611,7 +629,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée sur l'ensemble du territoire métropolitain.
 </t>
